--- a/Results/cm_CNN2DModel__PCC.xlsx
+++ b/Results/cm_CNN2DModel__PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADA82B-7030-4D45-AA63-6A84352AED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D176D-8526-4B4A-9270-A6A9621B4F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,12 +741,6 @@
         <v>0.79831146922654295</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>AVERAGE(B2:B16)</f>
-        <v>87.899849191313649</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
